--- a/Plan/Data_추출파일/002.기초데이터_상세.xlsx
+++ b/Plan/Data_추출파일/002.기초데이터_상세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D81D831-A1BD-485B-AA76-685A8786C708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{026DEEA3-48A8-4FFB-8869-5E4B1209E3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE04C075-5798-4F6D-9D13-E1BBA53253CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7C34C3C-AF53-44E4-8E01-ED05CCFD535F}"/>
   </bookViews>
   <sheets>
     <sheet name="002.기초데이터_상세" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <t>seq</t>
   </si>
   <si>
-    <t>30:60:90</t>
+    <t>30:70</t>
   </si>
   <si>
     <t>data</t>
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B15087-06FC-4AD6-BE60-0BAC53C287C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7406214F-A5D8-4B24-A39B-04DE1EA0E806}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Plan/Data_추출파일/002.기초데이터_상세.xlsx
+++ b/Plan/Data_추출파일/002.기초데이터_상세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{026DEEA3-48A8-4FFB-8869-5E4B1209E3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF9CA5F4-BC90-4729-AB67-41C9ECE3B130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7C34C3C-AF53-44E4-8E01-ED05CCFD535F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{80540CE9-3E12-4720-A21B-A7FC3E0F7776}"/>
   </bookViews>
   <sheets>
     <sheet name="002.기초데이터_상세" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>seq</t>
+    <t>Base_table_id</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>30:70</t>
@@ -409,16 +412,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7406214F-A5D8-4B24-A39B-04DE1EA0E806}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB7BD88-FFF8-4C49-9868-687310A2850F}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,72 +429,93 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
         <v>120</v>
       </c>
     </row>
